--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-25_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-25_valid.xlsx
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="O23">
         <v>4584</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>418.1052631578947</v>
+        <v>444.6315789473684</v>
       </c>
       <c r="BA23">
         <v>772.5842696629213</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="CL23">
-        <v>0.4918885448916409</v>
+        <v>0.5230959752321982</v>
       </c>
       <c r="CM23">
         <v>0.9657303370786516</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.8659188730924744</v>
+        <v>0.872492500326073</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -13308,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="O38">
         <v>1874</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="AZ38">
-        <v>485.3389830508475</v>
+        <v>490.4237288135594</v>
       </c>
       <c r="BA38">
         <v>553.8916256157636</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="CL38">
-        <v>0.57098703888335</v>
+        <v>0.5769690927218345</v>
       </c>
       <c r="CM38">
         <v>0.6923645320197045</v>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="DA38">
-        <v>0.6271137612220288</v>
+        <v>0.6303296261557014</v>
       </c>
     </row>
     <row r="39" spans="1:105">
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -23249,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="AZ69">
-        <v>501.9512195121951</v>
+        <v>519.5121951219512</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="CL69">
-        <v>0.5905308464849354</v>
+        <v>0.6111908177905309</v>
       </c>
       <c r="CM69">
         <v>0</v>
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="DA69">
-        <v>0.5352850488895232</v>
+        <v>0.5378754428452707</v>
       </c>
     </row>
     <row r="70" spans="1:105">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>442</v>
+        <v>449.5</v>
       </c>
       <c r="O73">
         <v>1544</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="AZ73">
-        <v>457.2413793103448</v>
+        <v>465</v>
       </c>
       <c r="BA73">
         <v>666.4748201438849</v>
@@ -24631,7 +24631,7 @@
         <v>0</v>
       </c>
       <c r="CL73">
-        <v>0.5379310344827586</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="CM73">
         <v>0.8330935251798561</v>
@@ -24676,7 +24676,7 @@
         <v>0</v>
       </c>
       <c r="DA73">
-        <v>0.3960526315789473</v>
+        <v>0.3972136222910216</v>
       </c>
     </row>
     <row r="74" spans="1:105">
@@ -30743,7 +30743,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>2718</v>
+        <v>2770</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="AZ93">
-        <v>441.9512195121951</v>
+        <v>450.4065040650406</v>
       </c>
       <c r="BA93">
         <v>0</v>
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="CL93">
-        <v>0.5199426111908177</v>
+        <v>0.5298900047824008</v>
       </c>
       <c r="CM93">
         <v>0</v>
@@ -31016,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="DA93">
-        <v>0.4912531969309462</v>
+        <v>0.5001193520886615</v>
       </c>
     </row>
     <row r="94" spans="1:105">
@@ -31694,7 +31694,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -31808,7 +31808,7 @@
         <v>0</v>
       </c>
       <c r="AZ96">
-        <v>557.6904176904177</v>
+        <v>558.7223587223588</v>
       </c>
       <c r="BA96">
         <v>0</v>
@@ -31922,7 +31922,7 @@
         <v>0</v>
       </c>
       <c r="CL96">
-        <v>0.6561063737534326</v>
+        <v>0.6573204220263045</v>
       </c>
       <c r="CM96">
         <v>0</v>
@@ -31967,7 +31967,7 @@
         <v>0</v>
       </c>
       <c r="DA96">
-        <v>0.6561063737534326</v>
+        <v>0.6573204220263045</v>
       </c>
     </row>
     <row r="97" spans="1:105">
@@ -38034,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>1960</v>
+        <v>1972</v>
       </c>
       <c r="O116">
         <v>2685</v>
@@ -38148,7 +38148,7 @@
         <v>0</v>
       </c>
       <c r="AZ116">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="BA116">
         <v>821.938775510204</v>
@@ -38262,7 +38262,7 @@
         <v>0</v>
       </c>
       <c r="CL116">
-        <v>0.5764705882352941</v>
+        <v>0.58</v>
       </c>
       <c r="CM116">
         <v>1.027423469387755</v>
@@ -38307,7 +38307,7 @@
         <v>0</v>
       </c>
       <c r="DA116">
-        <v>0.779192525634107</v>
+        <v>0.7811353211009175</v>
       </c>
     </row>
     <row r="117" spans="1:105">
